--- a/results/MVSE/imdb/MVSE_imdb<l03><NCEK>59.55.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l03><NCEK>59.55.xlsx
@@ -539,7 +539,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -592,7 +596,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_09_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -608,7 +614,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -661,7 +671,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_25_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -677,7 +689,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -730,7 +746,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_30_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -746,7 +764,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -776,7 +798,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>4096</v>
+      </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
@@ -815,7 +839,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -868,7 +896,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_41_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -884,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -937,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_30_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -953,7 +989,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1006,7 +1046,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_51_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1022,7 +1064,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1075,7 +1121,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_24_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1091,7 +1139,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1121,7 +1173,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>4096</v>
+      </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
@@ -1160,7 +1214,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1190,7 +1248,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>4096</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
@@ -1229,7 +1289,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1282,7 +1346,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_10_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1298,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1351,7 +1421,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_10_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1424,7 +1496,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_57_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1497,7 +1571,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1570,7 +1646,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_14_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1643,7 +1721,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1716,7 +1796,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_36_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1789,7 +1871,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
